--- a/RTPandHF.xlsx
+++ b/RTPandHF.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B961DB30-6094-4EEA-8FF8-F8FA19F2F538}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D85D49-2ED2-492F-AA2F-97EF5BCF9052}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Wild Tile</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Big Win</t>
   </si>
   <si>
-    <t>Reel Frequency</t>
-  </si>
-  <si>
     <t>Mid Win</t>
   </si>
   <si>
@@ -106,13 +103,28 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>Hit Frequency changes proportionally to the num of lines for slots with random tile positions in reels</t>
-  </si>
-  <si>
     <t>Geo Avg</t>
   </si>
   <si>
-    <t>Match 3 wilds is also match 4 of the tile in reel 4. Double counts wins</t>
+    <t>Tile Frequency</t>
+  </si>
+  <si>
+    <t>Match 3 Wild and Match 4 Wild have priority over Match 4 of any Tile and Match 5 of any Tile respectively</t>
+  </si>
+  <si>
+    <t>Hit Frequency changes proportionally to the num of lines for slots with varying tile positions in reels</t>
+  </si>
+  <si>
+    <t>Bonus Match Num Games</t>
+  </si>
+  <si>
+    <t>RTP ex Bonus</t>
+  </si>
+  <si>
+    <t>Winning bonus games from bonus games stacks</t>
+  </si>
+  <si>
+    <t>RTP Bonus = RTP</t>
   </si>
 </sst>
 </file>
@@ -139,13 +151,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -396,14 +414,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,17 +429,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,22 +449,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -469,12 +462,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -521,18 +508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -549,27 +524,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,6 +540,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
@@ -593,33 +573,129 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,13 +976,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomRight" activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,946 +994,981 @@
     <col min="12" max="12" width="9" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="8" customWidth="1"/>
     <col min="22" max="22" width="8.85546875" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" customWidth="1"/>
     <col min="26" max="26" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="76" t="s">
+      <c r="C1" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="57"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20">
+        <v>5</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="78"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="27">
-        <v>1</v>
-      </c>
-      <c r="D2" s="28">
+      <c r="K2" s="9">
         <v>2</v>
       </c>
-      <c r="E2" s="28">
+      <c r="L2" s="32">
         <v>3</v>
       </c>
-      <c r="F2" s="28">
+      <c r="M2" s="32">
         <v>4</v>
       </c>
-      <c r="G2" s="29">
+      <c r="N2" s="33">
         <v>5</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="13">
+      <c r="O2" s="21"/>
+      <c r="P2" s="9">
         <v>2</v>
       </c>
-      <c r="L2" s="43">
+      <c r="Q2" s="32">
         <v>3</v>
       </c>
-      <c r="M2" s="43">
+      <c r="R2" s="32">
         <v>4</v>
       </c>
-      <c r="N2" s="44">
+      <c r="S2" s="33">
         <v>5</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="13">
+      <c r="T2" s="21"/>
+      <c r="U2" s="45">
         <v>2</v>
       </c>
-      <c r="Q2" s="43">
+      <c r="V2" s="34">
         <v>3</v>
       </c>
-      <c r="R2" s="43">
+      <c r="W2" s="34">
         <v>4</v>
       </c>
-      <c r="S2" s="44">
+      <c r="X2" s="35">
         <v>5</v>
       </c>
-      <c r="T2" s="32"/>
-      <c r="U2" s="65">
-        <v>2</v>
-      </c>
-      <c r="V2" s="45">
-        <v>3</v>
-      </c>
-      <c r="W2" s="45">
-        <v>4</v>
-      </c>
-      <c r="X2" s="46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+    </row>
+    <row r="3" spans="1:26" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="65">
+        <v>30</v>
+      </c>
+      <c r="D3" s="66">
+        <v>20</v>
+      </c>
+      <c r="E3" s="66">
+        <v>15</v>
+      </c>
+      <c r="F3" s="66">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="G3" s="66">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="20">
+      <c r="H3" s="67">
         <f t="shared" ref="H3:H11" si="0">SUM(C3:G3)</f>
-        <v>100</v>
-      </c>
-      <c r="K3" s="25" t="str">
+        <v>85</v>
+      </c>
+      <c r="K3" s="69" t="str">
         <f>IF(P3&lt;&gt;0,C3*D3*(E$13-E3)*(F$13-F3)*(G$13-G3)/$N$14,"")</f>
         <v/>
       </c>
-      <c r="L3" s="30">
-        <f>C3*D3*E3*(F$13-F3)*(G$13-G3)/$N$14</f>
-        <v>1.596701632013433E-3</v>
-      </c>
-      <c r="M3" s="30">
+      <c r="L3" s="70">
+        <f>C3*D3*E3*(F$13-F3)*(G$13)/$N$14</f>
+        <v>8.0494087343402408E-4</v>
+      </c>
+      <c r="M3" s="70">
         <f>C3*D3*E3*F3*(G$13-G3)/N$14</f>
-        <v>8.0236262915247891E-5</v>
-      </c>
-      <c r="N3" s="31">
+        <v>3.6763284780588312E-5</v>
+      </c>
+      <c r="N3" s="71">
         <f>C3*D3*E3*F3*G3/N$14</f>
-        <v>3.5191343383880653E-6</v>
-      </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="63">
+        <v>1.7506326085994435E-6</v>
+      </c>
+      <c r="O3" s="72"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="98">
         <f>0.5*R3</f>
         <v>25000</v>
       </c>
-      <c r="R3" s="63">
+      <c r="R3" s="98">
         <f>0.5*S3</f>
         <v>50000</v>
       </c>
-      <c r="S3" s="64">
+      <c r="S3" s="99">
         <f>1000*C15</f>
         <v>100000</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="66" t="str">
+      <c r="T3" s="72"/>
+      <c r="U3" s="74" t="str">
         <f>IF(P3&lt;&gt;0,K3*P3,"")</f>
         <v/>
       </c>
-      <c r="V3" s="59">
+      <c r="V3" s="75">
         <f t="shared" ref="V3:V12" si="1">L3*Q3</f>
-        <v>39.917540800335821</v>
-      </c>
-      <c r="W3" s="59">
+        <v>20.123521835850603</v>
+      </c>
+      <c r="W3" s="75">
         <f t="shared" ref="W3:W12" si="2">M3*R3</f>
-        <v>4.0118131457623942</v>
-      </c>
-      <c r="X3" s="60">
+        <v>1.8381642390294155</v>
+      </c>
+      <c r="X3" s="76">
         <f t="shared" ref="X3:X12" si="3">N3*S3</f>
-        <v>0.35191343383880652</v>
+        <v>0.17506326085994434</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="21">
+      <c r="C4" s="95">
+        <v>20</v>
+      </c>
+      <c r="D4" s="95">
+        <v>40</v>
+      </c>
+      <c r="E4" s="95">
+        <v>40</v>
+      </c>
+      <c r="F4" s="95">
+        <v>40</v>
+      </c>
+      <c r="G4" s="96">
+        <v>20</v>
+      </c>
+      <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="K4" s="33" t="str">
+        <v>160</v>
+      </c>
+      <c r="K4" s="22" t="str">
         <f>IF(P4&lt;&gt;0,C4*D4*(E$13-E4)*(F$13-F4)*(G$13-G4)/$N$14,"")</f>
         <v/>
       </c>
-      <c r="L4" s="34">
-        <f>C4*D4*E4*(F$13-F4)*(G$13-G4)/$N$14</f>
-        <v>4.6038723068528028E-5</v>
-      </c>
-      <c r="M4" s="34">
+      <c r="L4" s="23">
+        <f>C4*D4*E4*(F$13-F4)*(G$13)/$N$14</f>
+        <v>2.4511968756140831E-3</v>
+      </c>
+      <c r="M4" s="23">
         <f>C4*D4*E4*F4*(G$13-G4)/N$14</f>
-        <v>4.4481858037225146E-7</v>
-      </c>
-      <c r="N4" s="35">
+        <v>4.9795771977939726E-4</v>
+      </c>
+      <c r="N4" s="24">
         <f>C4*D4*E4*F4*G4/N$14</f>
-        <v>1.8768716471403014E-9</v>
-      </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="48">
-        <f>94*5</f>
-        <v>470</v>
-      </c>
-      <c r="R4" s="48">
-        <f>94*10</f>
-        <v>940</v>
-      </c>
-      <c r="S4" s="49">
-        <f>470*15</f>
-        <v>7050</v>
-      </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="52" t="str">
+        <v>4.9795771977939723E-5</v>
+      </c>
+      <c r="O4" s="21"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="94">
+        <f>Q14*$C$15*$Q$16</f>
+        <v>950.78603297063501</v>
+      </c>
+      <c r="R4" s="94">
+        <f>R14*$C$15*$Q$16</f>
+        <v>1426.1790494559525</v>
+      </c>
+      <c r="S4" s="97">
+        <f>S14*$C$15*$Q$16</f>
+        <v>2376.9650824265877</v>
+      </c>
+      <c r="T4" s="21"/>
+      <c r="U4" s="37" t="str">
         <f t="shared" ref="U4:U12" si="4">IF(P4&lt;&gt;0,K4*P4,"")</f>
         <v/>
       </c>
-      <c r="V4" s="53">
+      <c r="V4" s="38">
         <f t="shared" si="1"/>
-        <v>2.1638199842208172E-2</v>
-      </c>
-      <c r="W4" s="53">
+        <v>2.3305637533951291</v>
+      </c>
+      <c r="W4" s="38">
         <f t="shared" si="2"/>
-        <v>4.1812946554991637E-4</v>
-      </c>
-      <c r="X4" s="54">
+        <v>0.71017686746423436</v>
+      </c>
+      <c r="X4" s="39">
         <f t="shared" si="3"/>
-        <v>1.3231945112339125E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="1" t="s">
+        <v>0.11836281124403907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="77">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="78">
+        <v>9</v>
+      </c>
+      <c r="E5" s="78">
         <v>5</v>
       </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2</v>
-      </c>
-      <c r="H5" s="21">
+      <c r="F5" s="78">
+        <v>4</v>
+      </c>
+      <c r="G5" s="79">
+        <v>15</v>
+      </c>
+      <c r="H5" s="80">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="K5" s="36" t="str">
+        <v>43</v>
+      </c>
+      <c r="K5" s="81" t="str">
         <f>IF(P5&lt;&gt;0,($C5+$C$3)*($D5+$D$3)*($E$13-E5-$E$3)*($F$13-F5-F$3)*(G$13-G5-G$3)/$N$14-K$3,"")</f>
         <v/>
       </c>
-      <c r="L5" s="37">
-        <f t="shared" ref="L5:L12" si="5">($C5+$C$3)*($D5+$D$3)*($E5+$E$3)*($F$13-F5-F$3)*(G$13-G5-G$3)/$N$14-L$3</f>
-        <v>1.210984238312312E-3</v>
-      </c>
-      <c r="M5" s="37">
-        <f>($C5+$C$3)*($D5+$D$3)*($E5+$E$3)*($F5+$F$3)*(G$13-G5-G$3)/$N$14-M$3</f>
-        <v>9.0790287561447246E-5</v>
-      </c>
-      <c r="N5" s="38">
-        <f>($C5+$C$3)*($D5+$D$3)*($E5+$E$3)*($F5+$F$3)*($G5+$G$3)/$N$14-N$3</f>
-        <v>5.5619214391355698E-6</v>
-      </c>
-      <c r="O5" s="32"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="48">
-        <f t="shared" ref="Q5" si="6">Q3*0.5</f>
+      <c r="L5" s="82">
+        <f>($C5+$C$3)*($D5+$D$3)*($E5+$E$3)*($F$13-F5-F$3)*(G$13)/$N$14-L$3</f>
+        <v>1.2303056943768313E-3</v>
+      </c>
+      <c r="M5" s="82">
+        <f>($C5+$C$3)*($D5+$D$3)*($E5+$E$3)*($F5+$F$3)*(G$13-G5-G$3)/$N$14-$M$3-($C$3*$D$3*$E$3*F5*(G$13-G5-G$3))/$N$14</f>
+        <v>7.2779632981507516E-5</v>
+      </c>
+      <c r="N5" s="83">
+        <f>(($C5+$C$3)*($D5+$D$3)*($E5+$E$3)*($F5+$F$3)*($G5+$G$3)-(C$3*D$3*E$3*F$3*(G5+G$3)))/$N$14</f>
+        <v>1.1418014902754149E-5</v>
+      </c>
+      <c r="O5" s="72"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="100">
+        <f t="shared" ref="Q5" si="5">Q3*0.5</f>
         <v>12500</v>
       </c>
-      <c r="R5" s="48">
+      <c r="R5" s="100">
         <f>R3*0.5</f>
         <v>25000</v>
       </c>
-      <c r="S5" s="49">
+      <c r="S5" s="101">
         <f>S3*0.4</f>
         <v>40000</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="52" t="str">
+      <c r="T5" s="72"/>
+      <c r="U5" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V5" s="53">
+      <c r="V5" s="86">
         <f t="shared" si="1"/>
-        <v>15.1373029789039</v>
-      </c>
-      <c r="W5" s="53">
+        <v>15.378821179710391</v>
+      </c>
+      <c r="W5" s="86">
         <f t="shared" si="2"/>
-        <v>2.2697571890361812</v>
-      </c>
-      <c r="X5" s="54">
+        <v>1.819490824537688</v>
+      </c>
+      <c r="X5" s="87">
         <f t="shared" si="3"/>
-        <v>0.22247685756542279</v>
+        <v>0.45672059611016597</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="G6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" s="3">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3">
-        <v>10</v>
-      </c>
-      <c r="H6" s="21">
+      <c r="H6" s="16">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="K6" s="36" t="str">
-        <f t="shared" ref="K6:K12" si="7">IF(P6&lt;&gt;0,($C6+$C$3)*($D6+$D$3)*($E$13-E6-$E$3)*($F$13-F6-F$3)*(G$13-G6-G$3)/$N$14-K$3,"")</f>
+        <v>90</v>
+      </c>
+      <c r="K6" s="25" t="str">
+        <f t="shared" ref="K6:K12" si="6">IF(P6&lt;&gt;0,($C6+$C$3)*($D6+$D$3)*($E$13-E6-$E$3)*($F$13-F6-F$3)*(G$13-G6-G$3)/$N$14-K$3,"")</f>
         <v/>
       </c>
-      <c r="L6" s="37">
-        <f t="shared" si="5"/>
-        <v>2.7338268418931506E-3</v>
-      </c>
-      <c r="M6" s="37">
-        <f t="shared" ref="M6:M12" si="8">($C6+$C$3)*($D6+$D$3)*($E6+$E$3)*($F6+$F$3)*(G$13-G6-G$3)/$N$14-M$3</f>
-        <v>3.7802071845052809E-4</v>
-      </c>
-      <c r="N6" s="38">
-        <f t="shared" ref="N6:N12" si="9">(C6+C$3)*(D6+D$3)*(E6+E$3)*(F6+F$3)*(G6+G$3)/N$14-N$3</f>
-        <v>3.8522790557554683E-5</v>
-      </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48">
+      <c r="L6" s="26">
+        <f t="shared" ref="L6:L12" si="7">($C6+$C$3)*($D6+$D$3)*($E6+$E$3)*($F$13-F6-F$3)*(G$13)/$N$14-L$3</f>
+        <v>6.689011585671042E-3</v>
+      </c>
+      <c r="M6" s="26">
+        <f t="shared" ref="M6:M12" si="8">($C6+$C$3)*($D6+$D$3)*($E6+$E$3)*($F6+$F$3)*(G$13-G6-G$3)/$N$14-$M$3-($C$3*$D$3*$E$3*F6*(G$13-G6-G$3))/$N$14</f>
+        <v>6.1291592774409401E-4</v>
+      </c>
+      <c r="N6" s="27">
+        <f t="shared" ref="N6:N12" si="9">(($C6+$C$3)*($D6+$D$3)*($E6+$E$3)*($F6+$F$3)*($G6+$G$3)-(C$3*D$3*E$3*F$3*(G6+G$3)))/$N$14</f>
+        <v>6.4967921252468235E-5</v>
+      </c>
+      <c r="O6" s="21"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="94">
         <f>0.5*R6</f>
         <v>4000</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="94">
         <f>0.5*S6</f>
         <v>8000</v>
       </c>
-      <c r="S6" s="49">
+      <c r="S6" s="97">
         <f>0.4*S5</f>
         <v>16000</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="52" t="str">
+      <c r="T6" s="21"/>
+      <c r="U6" s="37" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V6" s="53">
+      <c r="V6" s="38">
         <f t="shared" si="1"/>
-        <v>10.935307367572603</v>
-      </c>
-      <c r="W6" s="53">
+        <v>26.756046342684169</v>
+      </c>
+      <c r="W6" s="38">
         <f t="shared" si="2"/>
-        <v>3.0241657476042247</v>
-      </c>
-      <c r="X6" s="54">
+        <v>4.9033274219527518</v>
+      </c>
+      <c r="X6" s="39">
         <f t="shared" si="3"/>
-        <v>0.61636464892087495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9">
+        <v>1.0394867400394918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="89">
         <v>25</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="90">
+        <v>25</v>
+      </c>
+      <c r="E7" s="90">
+        <v>25</v>
+      </c>
+      <c r="F7" s="90">
         <v>15</v>
       </c>
-      <c r="E7" s="22">
+      <c r="G7" s="91">
         <v>15</v>
       </c>
-      <c r="F7" s="22">
-        <v>15</v>
-      </c>
-      <c r="G7" s="23">
-        <v>15</v>
-      </c>
-      <c r="H7" s="24">
+      <c r="H7" s="92">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="K7" s="36" t="str">
+        <v>105</v>
+      </c>
+      <c r="K7" s="81" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L7" s="82">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L7" s="37">
-        <f t="shared" si="5"/>
-        <v>5.0235501915116103E-3</v>
-      </c>
-      <c r="M7" s="37">
-        <f>($C7+$C$3)*($D7+$D$3)*($E7+$E$3)*($F7+$F$3)*(G$13-G7-G$3)/$N$14-M$3</f>
-        <v>8.192544739767417E-4</v>
-      </c>
-      <c r="N7" s="38">
-        <f>(C7+C$3)*(D7+D$3)*(E7+E$3)*(F7+F$3)*(G7+G$3)/N$14-N$3</f>
-        <v>1.0205489581325389E-4</v>
-      </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="48">
+        <v>7.4139290974186431E-3</v>
+      </c>
+      <c r="M7" s="82">
+        <f t="shared" si="8"/>
+        <v>8.5080744777932954E-4</v>
+      </c>
+      <c r="N7" s="83">
+        <f t="shared" si="9"/>
+        <v>1.1597941031971312E-4</v>
+      </c>
+      <c r="O7" s="72"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="100">
         <f t="shared" ref="Q7:Q12" si="10">0.5*R7</f>
         <v>1600</v>
       </c>
-      <c r="R7" s="48">
+      <c r="R7" s="100">
         <f t="shared" ref="R7:R12" si="11">0.5*S7</f>
         <v>3200</v>
       </c>
-      <c r="S7" s="49">
+      <c r="S7" s="101">
         <f t="shared" ref="S7:S12" si="12">0.4*S6</f>
         <v>6400</v>
       </c>
-      <c r="T7" s="32"/>
-      <c r="U7" s="52" t="str">
+      <c r="T7" s="72"/>
+      <c r="U7" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V7" s="53">
+      <c r="V7" s="86">
         <f t="shared" si="1"/>
-        <v>8.0376803064185758</v>
-      </c>
-      <c r="W7" s="53">
+        <v>11.862286555869829</v>
+      </c>
+      <c r="W7" s="86">
         <f t="shared" si="2"/>
-        <v>2.6216143167255734</v>
-      </c>
-      <c r="X7" s="54">
+        <v>2.7225838328938545</v>
+      </c>
+      <c r="X7" s="87">
         <f t="shared" si="3"/>
-        <v>0.65315133320482488</v>
+        <v>0.74226822604616405</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
-        <v>11</v>
+      <c r="A8" s="58" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>10</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>10</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3">
         <v>30</v>
       </c>
-      <c r="G8" s="4">
-        <v>50</v>
-      </c>
-      <c r="H8" s="21">
+      <c r="H8" s="16">
         <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="K8" s="36" t="str">
-        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="K8" s="25" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L8" s="37">
-        <f t="shared" si="5"/>
-        <v>1.16984095956102E-3</v>
-      </c>
-      <c r="M8" s="37">
+      <c r="L8" s="26">
+        <f>($C8+$C$3)*($D8+$D$3)*($E8+$E$3)*($F$13-F8-F$3)*(G$13)/$N$14-L$3</f>
+        <v>1.6214359220848048E-3</v>
+      </c>
+      <c r="M8" s="26">
         <f t="shared" si="8"/>
-        <v>5.7456671733906054E-4</v>
-      </c>
-      <c r="N8" s="38">
+        <v>2.1532781085773157E-4</v>
+      </c>
+      <c r="N8" s="27">
         <f t="shared" si="9"/>
-        <v>2.172009713653114E-4</v>
-      </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="48">
+        <v>6.3022773909579969E-5</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="94">
         <f t="shared" si="10"/>
         <v>640</v>
       </c>
-      <c r="R8" s="48">
+      <c r="R8" s="94">
         <f t="shared" si="11"/>
         <v>1280</v>
       </c>
-      <c r="S8" s="49">
+      <c r="S8" s="97">
         <f t="shared" si="12"/>
         <v>2560</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="52" t="str">
+      <c r="T8" s="21"/>
+      <c r="U8" s="37" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V8" s="53">
+      <c r="V8" s="38">
         <f t="shared" si="1"/>
-        <v>0.7486982141190528</v>
-      </c>
-      <c r="W8" s="53">
+        <v>1.0377189901342752</v>
+      </c>
+      <c r="W8" s="38">
         <f t="shared" si="2"/>
-        <v>0.73544539819399746</v>
-      </c>
-      <c r="X8" s="54">
+        <v>0.27561959789789642</v>
+      </c>
+      <c r="X8" s="39">
         <f t="shared" si="3"/>
-        <v>0.55603448669519717</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="1" t="s">
+        <v>0.16133830120852471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58"/>
+      <c r="B9" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="78">
+        <v>10</v>
+      </c>
+      <c r="D9" s="78">
+        <v>10</v>
+      </c>
+      <c r="E9" s="78">
         <v>20</v>
       </c>
-      <c r="D9" s="3">
+      <c r="F9" s="78">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="79">
         <v>20</v>
       </c>
-      <c r="F9" s="3">
-        <v>20</v>
-      </c>
-      <c r="G9" s="4">
-        <v>30</v>
-      </c>
-      <c r="H9" s="21">
+      <c r="H9" s="80">
         <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="K9" s="36" t="str">
+        <v>80</v>
+      </c>
+      <c r="K9" s="81" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L9" s="82">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L9" s="37">
-        <f t="shared" si="5"/>
-        <v>5.138456965928657E-3</v>
-      </c>
-      <c r="M9" s="37">
+        <v>2.5919866402923362E-3</v>
+      </c>
+      <c r="M9" s="82">
         <f t="shared" si="8"/>
-        <v>1.0485612674661078E-3</v>
-      </c>
-      <c r="N9" s="38">
+        <v>3.6238094998008481E-4</v>
+      </c>
+      <c r="N9" s="83">
         <f t="shared" si="9"/>
-        <v>2.2452077078915857E-4</v>
-      </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="48">
+        <v>6.827467173537829E-5</v>
+      </c>
+      <c r="O9" s="72"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="100">
         <f t="shared" si="10"/>
         <v>256</v>
       </c>
-      <c r="R9" s="48">
+      <c r="R9" s="100">
         <f t="shared" si="11"/>
         <v>512</v>
       </c>
-      <c r="S9" s="49">
+      <c r="S9" s="101">
         <f t="shared" si="12"/>
         <v>1024</v>
       </c>
-      <c r="T9" s="32"/>
-      <c r="U9" s="52" t="str">
+      <c r="T9" s="72"/>
+      <c r="U9" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V9" s="53">
+      <c r="V9" s="86">
         <f t="shared" si="1"/>
-        <v>1.3154449832777362</v>
-      </c>
-      <c r="W9" s="53">
+        <v>0.66354857991483807</v>
+      </c>
+      <c r="W9" s="86">
         <f t="shared" si="2"/>
-        <v>0.53686336894264719</v>
-      </c>
-      <c r="X9" s="54">
+        <v>0.18553904638980342</v>
+      </c>
+      <c r="X9" s="87">
         <f t="shared" si="3"/>
-        <v>0.22990926928809838</v>
+        <v>6.9913263857027369E-2</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3">
-        <v>30</v>
-      </c>
-      <c r="F10" s="3">
-        <v>30</v>
-      </c>
-      <c r="G10" s="4">
-        <v>30</v>
-      </c>
-      <c r="H10" s="21">
+      <c r="C10" s="95">
+        <v>10</v>
+      </c>
+      <c r="D10" s="95">
+        <v>20</v>
+      </c>
+      <c r="E10" s="95">
+        <v>20</v>
+      </c>
+      <c r="F10" s="95">
+        <v>20</v>
+      </c>
+      <c r="G10" s="96">
+        <v>20</v>
+      </c>
+      <c r="H10" s="16">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="K10" s="36" t="str">
+        <v>90</v>
+      </c>
+      <c r="K10" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L10" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L10" s="37">
-        <f t="shared" si="5"/>
-        <v>9.8022024167610574E-3</v>
-      </c>
-      <c r="M10" s="37">
+        <v>3.7242958115344563E-3</v>
+      </c>
+      <c r="M10" s="26">
         <f t="shared" si="8"/>
-        <v>2.6177291924159929E-3</v>
-      </c>
-      <c r="N10" s="38">
-        <f>(C10+C$3)*(D10+D$3)*(E10+E$3)*(F10+F$3)*(G10+G$3)/N$14-N$3</f>
-        <v>5.4152439199115551E-4</v>
-      </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="48">
+        <v>5.1760370794256877E-4</v>
+      </c>
+      <c r="N10" s="27">
+        <f t="shared" si="9"/>
+        <v>9.2783528255770503E-5</v>
+      </c>
+      <c r="O10" s="21"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="94">
         <f t="shared" si="10"/>
         <v>102.4</v>
       </c>
-      <c r="R10" s="48">
+      <c r="R10" s="94">
         <f t="shared" si="11"/>
         <v>204.8</v>
       </c>
-      <c r="S10" s="49">
+      <c r="S10" s="97">
         <f t="shared" si="12"/>
         <v>409.6</v>
       </c>
-      <c r="T10" s="32"/>
-      <c r="U10" s="52" t="str">
+      <c r="T10" s="21"/>
+      <c r="U10" s="37" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V10" s="53">
+      <c r="V10" s="38">
         <f t="shared" si="1"/>
-        <v>1.0037455274763323</v>
-      </c>
-      <c r="W10" s="53">
+        <v>0.38136789110112834</v>
+      </c>
+      <c r="W10" s="38">
         <f t="shared" si="2"/>
-        <v>0.53611093860679537</v>
-      </c>
-      <c r="X10" s="54">
+        <v>0.10600523938663808</v>
+      </c>
+      <c r="X10" s="39">
         <f t="shared" si="3"/>
-        <v>0.2218083909595773</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="1" t="s">
+        <v>3.8004133173563603E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
+      <c r="B11" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="78">
+        <v>20</v>
+      </c>
+      <c r="D11" s="78">
         <v>40</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="78">
         <v>40</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="78">
         <v>40</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="79">
         <v>40</v>
       </c>
-      <c r="G11" s="4">
-        <v>40</v>
-      </c>
-      <c r="H11" s="21">
+      <c r="H11" s="80">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="K11" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="K11" s="81" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L11" s="82">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L11" s="37">
-        <f t="shared" si="5"/>
-        <v>1.4995892899957584E-2</v>
-      </c>
-      <c r="M11" s="37">
+        <v>1.1127954530982649E-2</v>
+      </c>
+      <c r="M11" s="82">
         <f t="shared" si="8"/>
-        <v>5.1375607597171479E-3</v>
-      </c>
-      <c r="N11" s="38">
+        <v>2.572262846235449E-3</v>
+      </c>
+      <c r="N11" s="83">
         <f t="shared" si="9"/>
-        <v>1.3841928397659723E-3</v>
-      </c>
-      <c r="O11" s="32"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="48">
+        <v>7.9362011589841444E-4</v>
+      </c>
+      <c r="O11" s="72"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="100">
         <f t="shared" si="10"/>
         <v>40.960000000000008</v>
       </c>
-      <c r="R11" s="48">
+      <c r="R11" s="100">
         <f t="shared" si="11"/>
         <v>81.920000000000016</v>
       </c>
-      <c r="S11" s="49">
+      <c r="S11" s="101">
         <f t="shared" si="12"/>
         <v>163.84000000000003</v>
       </c>
-      <c r="T11" s="32"/>
-      <c r="U11" s="52" t="str">
+      <c r="T11" s="72"/>
+      <c r="U11" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V11" s="53">
+      <c r="V11" s="86">
         <f t="shared" si="1"/>
-        <v>0.61423177318226274</v>
-      </c>
-      <c r="W11" s="53">
+        <v>0.4558010175890494</v>
+      </c>
+      <c r="W11" s="86">
         <f t="shared" si="2"/>
-        <v>0.42086897743602886</v>
-      </c>
-      <c r="X11" s="54">
+        <v>0.21071977236360803</v>
+      </c>
+      <c r="X11" s="87">
         <f t="shared" si="3"/>
-        <v>0.22678615486725695</v>
+        <v>0.13002671978879624</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
-      <c r="B12" s="6">
+      <c r="A12" s="59"/>
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="3">
-        <v>50</v>
-      </c>
-      <c r="D12" s="3">
-        <v>50</v>
-      </c>
-      <c r="E12" s="3">
-        <v>50</v>
-      </c>
-      <c r="F12" s="3">
-        <v>50</v>
-      </c>
-      <c r="G12" s="3">
-        <v>50</v>
-      </c>
-      <c r="H12" s="21">
+      <c r="C12" s="95">
+        <v>30</v>
+      </c>
+      <c r="D12" s="95">
+        <v>40</v>
+      </c>
+      <c r="E12" s="95">
+        <v>40</v>
+      </c>
+      <c r="F12" s="95">
+        <v>40</v>
+      </c>
+      <c r="G12" s="96">
+        <v>40</v>
+      </c>
+      <c r="H12" s="16">
         <f>SUM(C12:G12)</f>
-        <v>250</v>
-      </c>
-      <c r="K12" s="39" t="str">
-        <f t="shared" si="7"/>
+        <v>190</v>
+      </c>
+      <c r="K12" s="28" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L12" s="40">
-        <f t="shared" si="5"/>
-        <v>2.0803573789441351E-2</v>
-      </c>
-      <c r="M12" s="40">
+      <c r="L12" s="29">
+        <f>($C12+$C$3)*($D12+$D$3)*($E12+$E$3)*($F$13-F12-F$3)*(G$13)/$N$14-L$3</f>
+        <v>1.3514533611865984E-2</v>
+      </c>
+      <c r="M12" s="29">
         <f t="shared" si="8"/>
-        <v>8.9400088732410413E-3</v>
-      </c>
-      <c r="N12" s="41">
+        <v>3.117876675915609E-3</v>
+      </c>
+      <c r="N12" s="30">
         <f t="shared" si="9"/>
-        <v>3.0370129340289002E-3</v>
-      </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="50">
+        <v>9.540947716866967E-4</v>
+      </c>
+      <c r="O12" s="21"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="102">
         <f t="shared" si="10"/>
         <v>16.384000000000004</v>
       </c>
-      <c r="R12" s="50">
+      <c r="R12" s="102">
         <f t="shared" si="11"/>
         <v>32.768000000000008</v>
       </c>
-      <c r="S12" s="51">
+      <c r="S12" s="103">
         <f t="shared" si="12"/>
         <v>65.536000000000016</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="55" t="str">
+      <c r="T12" s="21"/>
+      <c r="U12" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="V12" s="56">
+      <c r="V12" s="41">
         <f t="shared" si="1"/>
-        <v>0.34084575296620717</v>
-      </c>
-      <c r="W12" s="56">
+        <v>0.22142211869681233</v>
+      </c>
+      <c r="W12" s="41">
         <f t="shared" si="2"/>
-        <v>0.29294621075836252</v>
-      </c>
-      <c r="X12" s="57">
+        <v>0.1021665829164027</v>
+      </c>
+      <c r="X12" s="42">
         <f t="shared" si="3"/>
-        <v>0.19903367964451804</v>
+        <v>6.2527554957259368E-2</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="17">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13">
         <f>SUM(C3:C12)</f>
-        <v>235</v>
-      </c>
-      <c r="D13" s="17">
+        <v>190</v>
+      </c>
+      <c r="D13" s="13">
         <f t="shared" ref="D13:F13" si="13">SUM(D3:D12)</f>
-        <v>215</v>
-      </c>
-      <c r="E13" s="17">
+        <v>234</v>
+      </c>
+      <c r="E13" s="13">
+        <f>SUM(E3:E12)</f>
+        <v>240</v>
+      </c>
+      <c r="F13" s="13">
         <f t="shared" si="13"/>
-        <v>212</v>
-      </c>
-      <c r="F13" s="17">
-        <f t="shared" si="13"/>
-        <v>209</v>
-      </c>
-      <c r="G13" s="18">
+        <v>219</v>
+      </c>
+      <c r="G13" s="14">
         <f>SUM(G3:G12)</f>
-        <v>238</v>
-      </c>
-      <c r="H13" s="19">
+        <v>220</v>
+      </c>
+      <c r="H13" s="15">
         <f>SUM(C13:G13)</f>
-        <v>1109</v>
-      </c>
-      <c r="K13" s="79" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K13" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="47">
+        <f>SUM(K3:N12)*N14</f>
+        <v>31998591000.000004</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X13" s="31">
+        <f>SUM(U3:X12)/C15</f>
+        <v>0.95078603297063513</v>
+      </c>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="68">
-        <f>SUM(K3:N12)*N14</f>
-        <v>46759912799.999992</v>
-      </c>
-      <c r="W13" s="13" t="s">
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="46">
+        <f>C$13*D$13*E$13*F$13*G$13</f>
+        <v>514099872000</v>
+      </c>
+      <c r="P14" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="106">
+        <v>10</v>
+      </c>
+      <c r="R14" s="106">
+        <v>15</v>
+      </c>
+      <c r="S14" s="107">
+        <v>25</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X14" s="31">
+        <f>SUM(U5:X12,U3:X3)/C15</f>
+        <v>0.91919499864960097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11">
+        <v>100</v>
+      </c>
+      <c r="K15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="X13" s="42">
-        <f>SUM(U3:X12)/C15</f>
-        <v>0.95799930813556178</v>
-      </c>
-      <c r="Z13" s="16"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K14" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="67">
-        <f>C$13*D$13*E$13*F$13*G$13</f>
-        <v>532801484600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="70" t="s">
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="31">
+        <f>C16*N13/N14</f>
+        <v>6.2241974259818533E-2</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" s="4">
+        <f>SUM(V3:X12)^(1/17)</f>
+        <v>1.3072474741766298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="15">
-        <v>100</v>
-      </c>
-      <c r="K15" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="42">
-        <f>C16*N13/N14</f>
-        <v>8.7762354557072861E-2</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="X15" s="5">
-        <f>SUM(V3:X12,U6,U9)^(1/17)</f>
-        <v>1.3078287910195756</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="C16" s="10">
         <v>1</v>
       </c>
+      <c r="P16" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="108">
+        <f>X14/(1-L4*Q14-M4*R14-N4*S14)</f>
+        <v>0.95078603297063502</v>
+      </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>27</v>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
